--- a/medicine/Mort/Liste_d'œuvres_traitant_de_la_peine_de_mort/Liste_d'œuvres_traitant_de_la_peine_de_mort.xlsx
+++ b/medicine/Mort/Liste_d'œuvres_traitant_de_la_peine_de_mort/Liste_d'œuvres_traitant_de_la_peine_de_mort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
+          <t>Liste_d'œuvres_traitant_de_la_peine_de_mort</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici une liste non exhaustive d'œuvres traitant de la peine de mort.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
+          <t>Liste_d'œuvres_traitant_de_la_peine_de_mort</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,50 @@
           <t>Écrits : livres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ouvrages dont la citation est incomplète
 La Peine de mort de Franc Marceau
-[réf. souhaitée]
-Ouvrages généraux
-Jean Imbert, plusieurs ouvrages avec le même titre
+[réf. souhaitée]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_d'œuvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Écrits : livres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ouvrages généraux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jean Imbert, plusieurs ouvrages avec le même titre
 Jean Imbert, La peine de mort (Étude), Paris, Armand Colin, coll. « U 2 » (no 1), 1967, 208 p. (présentation en ligne).
 Jean Imbert, La peine de mort (Étude), Paris, PUF, coll. « Que sais-je ? », 1972, 220 p..
 Cécile Prieur et Franck Johannès, La peine de mort (Recueil d'articles du journal Le Monde), Paris, Librio, 2002 (réimpr. 2005), 122 p. (ISBN 2-290-31450-1)
@@ -526,17 +574,119 @@
 L'exécution capitale : Une mort donnée en spectacle de Régis Bertrand et Anne Carol
 Peines de mort : Histoire et techniques des exécutions capitales. Des origines à nos jours de Martin Monestier
 La peine de mort. L'histoire et la géographie de l'assassinat légal (d)  de Kurt Rossa
-La peine de mort: Esquisse historique et juridique de Paul Savey-Casard et François Perroux
-Romans
-L'Idiot, Fédor Dostoyevsky, 1874
+La peine de mort: Esquisse historique et juridique de Paul Savey-Casard et François Perroux</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_d'œuvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Écrits : livres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'Idiot, Fédor Dostoyevsky, 1874
 La Nuit du renard (en anglais : A stranger is watching), Mary Higgins Clark, 1977
-La Ligne verte, (en anglais : The Green Mile), Stephen King, 1996
-Essais sur des affaires capitales
-Le Pull-over rouge, de Gilles Perrault
+La Ligne verte, (en anglais : The Green Mile), Stephen King, 1996</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_d'œuvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Écrits : livres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Essais sur des affaires capitales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Pull-over rouge, de Gilles Perrault
 La Revanche de la guillotine, de Luc Briand
-Le Dernier guillotiné, de Jean-Yves Le Naour
-Les abolitionnistes
-Des délits et des peines, de Cesare Beccaria
+Le Dernier guillotiné, de Jean-Yves Le Naour</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_d'œuvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écrits : livres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les abolitionnistes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Des délits et des peines, de Cesare Beccaria
 Le Dernier Jour d'un condamné, de Victor Hugo
 L'Abolition, de Robert Badinter
 L'Exécution, de Robert Badinter
@@ -552,21 +702,123 @@
 Claude Gueux de Victor Hugo
 L'affaire Tapner de Victor Hugo
 La loi et le bourreau: la peine de mort en débats, 1870-1985 de Julie Le Quang Suang
-La Fille Élisa d'Edmond de Goncourt, intrigue coécrite avec son frère Jules, mort avant la rédaction (le personnage éponyme est condamné à mort puis voit sa peine commuée en prison à perpétuité, elle aussi critiquée de manière implicite par le narrateur)
-Les bourreaux
-Paroles de bourreau : Témoignage unique d'un exécuteur des arrêts criminels, de Fernand Meyssonnier et Jean-Michel Bessette
+La Fille Élisa d'Edmond de Goncourt, intrigue coécrite avec son frère Jules, mort avant la rédaction (le personnage éponyme est condamné à mort puis voit sa peine commuée en prison à perpétuité, elle aussi critiquée de manière implicite par le narrateur)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_d'œuvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écrits : livres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les bourreaux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Paroles de bourreau : Témoignage unique d'un exécuteur des arrêts criminels, de Fernand Meyssonnier et Jean-Michel Bessette
 Le métier de bourreau, du Moyen Âge à aujourd'hui de Jacques Delarue
 Anatole Deibler, profession bourreau (1863-1939) de François Foucart
 Anatole Deibler, l'homme qui trancha 400 têtes de Gérard A. Jaeger
 Carnets d'exécutions - Anatole Deibler 1885-1939 de Gérard A. Jaeger
 Le carnet noir du bourreau - Les mémoires d'André Obrecht, qui exécuta 322 condamnés de Jean Ker
-Desfourneaux, bourreau - L'homme du petit jour de Sylvain Larue
-L'Antiquité
-Les peines de mort en Grèce et à Rome de Eva Cantarella
+Desfourneaux, bourreau - L'homme du petit jour de Sylvain Larue</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_d'œuvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écrits : livres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>L'Antiquité</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les peines de mort en Grèce et à Rome de Eva Cantarella
 Contribution à l'étude de la peine de mort sous la République Romaine de Claire Lovisi
-Du châtiment dans la cité. Supplices corporels et peine de mort dans le monde antique de Yan Thomas
-Du Moyen Âge à la Révolution
-La Guillotine dans la Révolution de Daniel Arasse
+Du châtiment dans la cité. Supplices corporels et peine de mort dans le monde antique de Yan Thomas</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_d'œuvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écrits : livres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Du Moyen Âge à la Révolution</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La Guillotine dans la Révolution de Daniel Arasse
 La Guillotine et l'imaginaire de la Terreurde Daniel Arasse
 L'exécution publique à Paris au XVIIIe siècle. Une histoire des rituels judiciaires de Pascal Bastien
 La procédure devant la chambre criminelle du Parlement de Paris au XIVe siècle Louis de Carbonnières
@@ -574,14 +826,82 @@
 De grace especial. Crime, État et société en France à la fin du Moyen Âge de Claude Gauvard
 Condamner à mort au Moyen Age. Pratiques de la peine capitale en France (XIIIe – XVe siècle) de Claude Gauvard
 Le Temps des supplices. De l'obéissance sous les rois absolus, XVe – XVIIIe siècle de Robert Muchembled
-Histoire de la décapitation de Paul H. Stahl
-Le lynchage aux États-Unis
-Under Sentence of Death : Lynching in the South de William Fitzbugh Brundage
+Histoire de la décapitation de Paul H. Stahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_d'œuvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écrits : livres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Le lynchage aux États-Unis</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Under Sentence of Death : Lynching in the South de William Fitzbugh Brundage
 Le Lynchage aux États-Unis de Joël Michel
 Lethal punishment. Lynchings and Legal Executions in the South de Margart Vandiver
-The Many Faces of Judge Lynch : Extralegal Violence and Punishment in America de Christopher Waldrep
-Société, religion et pouvoir face à la justice
-Homo sacer, le pouvoir souverain et la vie nue de Giorgio Agamben
+The Many Faces of Judge Lynch : Extralegal Violence and Punishment in America de Christopher Waldrep</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_d'œuvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écrits : livres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Société, religion et pouvoir face à la justice</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Homo sacer, le pouvoir souverain et la vie nue de Giorgio Agamben
 Les chasses à l'homme de Grégoire Chamayou
 Le mythe de la Loi du talion de Raphaël Draï
 La vie des hommes infâmes, les Cahiers du Chemin n°29, p12 à 29 de Michel Foucault
@@ -591,35 +911,71 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_d'œuvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Images</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jean Clair (dir.), Robert Badinter et al., Crime et Châtiment, Paris, Gallimard, coll. « Livres d'art », 2010, 416 p. (ISBN 978-2-07-012874-7, présentation en ligne).Catalogue de l’exposition  « Crime et châtiment », au Musée d'Orsay du 16 mars au 27 juin 2010. présentation officielle de l'exposition
-Films
-De sang-froid de Richard Brooks
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Jean Clair (dir.), Robert Badinter et al., Crime et Châtiment, Paris, Gallimard, coll. « Livres d'art », 2010, 416 p. (ISBN 978-2-07-012874-7, présentation en ligne).Catalogue de l’exposition  « Crime et châtiment », au Musée d'Orsay du 16 mars au 27 juin 2010. présentation officielle de l'exposition</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_d'œuvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Images</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Films</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>De sang-froid de Richard Brooks
 Deux hommes dans la ville (de José Giovanni)
 Douze hommes en colère (en anglais : 12 Angry Men), Sidney Lumet, 1957
 Dancer in the Dark de Lars von Trier
@@ -645,9 +1001,43 @@
 Un condamné à mort s'est échappé de Robert Bresson
 La Veuve de Saint-Pierre de Patrice Leconte
 Le Bourreau de Luis Garcia Berlanga
-Le diable n'existe pas (2020) de Mohammad  Rasoulof
-Documentaires
-Les Rescapés de la guillotine de Xavier-Marie Bonnot et Ursula Wernly-Fergui
+Le diable n'existe pas (2020) de Mohammad  Rasoulof</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_d'œuvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Images</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Documentaires</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Les Rescapés de la guillotine de Xavier-Marie Bonnot et Ursula Wernly-Fergui
 Erreurs fatales de Katy Chevigny, Kirsten Johnson
 Honk, Arnaud Gaillard et Florent Vassault, 2011
 Made in the USA de Sólveig Anspach
@@ -661,45 +1051,84 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_d'œuvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Chansons et poèmes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En France
-Dabatcha'ZZ - Le grand pardon
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Dabatcha'ZZ - Le grand pardon
 Le Gorille de Georges Brassens (1952)
-Le Condamné à mort de Jean Genet, par Hélène Martin (1961)[1]
+Le Condamné à mort de Jean Genet, par Hélène Martin (1961)
 Ni Dieu ni maître de Léo Ferré (1965)
 Sauvez-moi de Johnny Hallyday (1972)
 La Mort des loups de Léo Ferré (1975)
 Je suis pour de Michel Sardou (1976)
 La Mort au choix de Bérurier Noir (1984)
 La Dernière de Louisa Mauer (2012)
-L'assassin assassiné de Julien Clerc (1978)
-Ailleurs
-Hallowed be thy Name de Iron Maiden
+L'assassin assassiné de Julien Clerc (1978)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_d'œuvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Chansons et poèmes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Ailleurs</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Hallowed be thy Name de Iron Maiden
 The Man I Killed de NOFX
 25 Minutes To Go de Johnny Cash
 Rutsah de Eths
@@ -712,31 +1141,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_d'œuvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27%C5%93uvres_traitant_de_la_peine_de_mort</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Séries télévisées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">21 Jump Street saison 4 épisode 16. Titre "Peine capitale" avec Josh Richman.
 Babylon 5 dans l'épisode 5 de la troisième saison, Dans les jardins de Gethsemane.
